--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narijohnson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BB1B2-56D9-F74A-99BC-0F1F9CF91343}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB0F87F-10D8-7B43-9AAA-9B383BDEA10C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19420" windowHeight="15940" xr2:uid="{664AA221-5B88-C34B-85FB-0CE15DA0EA73}"/>
   </bookViews>
@@ -558,8 +558,8 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O14" sqref="O14"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,176 +655,176 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11">
-        <v>17.100000000000001</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C4">
-        <v>13.9</v>
+        <v>2.6</v>
       </c>
       <c r="D4" s="1">
-        <v>14.9</v>
+        <v>6.1</v>
       </c>
       <c r="E4">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="F4" s="12">
-        <v>44.2</v>
+        <v>29.6</v>
       </c>
       <c r="H4" s="1">
-        <v>10.6</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
         <v>6.5</v>
       </c>
       <c r="K4" s="1">
-        <v>63.8</v>
+        <v>17.8</v>
       </c>
       <c r="L4">
-        <v>61.9</v>
+        <v>6.7</v>
       </c>
       <c r="M4" s="1">
-        <v>46.1</v>
+        <v>21.4</v>
       </c>
       <c r="N4">
-        <v>23.9</v>
+        <v>12.9</v>
       </c>
       <c r="Q4" s="13">
-        <v>35.5</v>
+        <v>24.5</v>
       </c>
       <c r="R4" s="7">
-        <v>22.9</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11">
-        <v>15.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C5">
-        <v>11.6</v>
+        <v>13.9</v>
       </c>
       <c r="D5" s="1">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E5">
-        <v>8.1</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44.2</v>
+      </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>10.6</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="K5" s="1">
-        <v>57</v>
+        <v>63.8</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>61.9</v>
       </c>
       <c r="M5" s="1">
-        <v>41.9</v>
+        <v>46.1</v>
       </c>
       <c r="N5">
         <v>23.9</v>
       </c>
       <c r="Q5" s="13">
-        <v>25.9</v>
+        <v>35.5</v>
       </c>
       <c r="R5" s="7">
-        <v>13.6</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>25.5</v>
+        <v>15.3</v>
       </c>
       <c r="C6">
-        <v>16.7</v>
+        <v>11.6</v>
       </c>
       <c r="D6" s="1">
-        <v>21.8</v>
+        <v>14.7</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12">
-        <v>40</v>
-      </c>
+        <v>8.1</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="H6" s="1">
-        <v>11.9</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="K6" s="1">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="L6">
-        <v>77.900000000000006</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1">
-        <v>63.2</v>
+        <v>41.9</v>
       </c>
       <c r="N6">
-        <v>36.6</v>
+        <v>23.9</v>
       </c>
       <c r="Q6" s="13">
-        <v>36.700000000000003</v>
+        <v>25.9</v>
       </c>
       <c r="R6" s="7">
-        <v>28.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11">
-        <v>4.5999999999999996</v>
+        <v>25.5</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>16.7</v>
       </c>
       <c r="D7" s="1">
-        <v>10.9</v>
+        <v>21.8</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="12">
-        <v>29.6</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
-        <v>6.6</v>
+        <v>11.9</v>
       </c>
       <c r="I7">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="K7" s="1">
-        <v>17.8</v>
+        <v>95</v>
       </c>
       <c r="L7">
-        <v>6.7</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="M7" s="1">
-        <v>36.299999999999997</v>
+        <v>63.2</v>
       </c>
       <c r="N7">
-        <v>23</v>
+        <v>36.6</v>
       </c>
       <c r="Q7" s="13">
-        <v>24.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="R7" s="7">
-        <v>18.899999999999999</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -838,10 +838,10 @@
         <v>9.1</v>
       </c>
       <c r="D8" s="1">
-        <v>6.1</v>
+        <v>10.9</v>
       </c>
       <c r="E8">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="12">
         <v>30.7</v>
@@ -859,10 +859,10 @@
         <v>32</v>
       </c>
       <c r="M8" s="1">
-        <v>21.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="N8">
-        <v>12.9</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="13">
         <v>26.9</v>
@@ -1318,8 +1318,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="1"/>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
       <c r="H20" s="11"/>
@@ -1367,8 +1366,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="11"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="M22" s="1"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -1508,15 +1506,15 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="8">
-        <f t="shared" ref="B21:B36" si="0" xml:space="preserve"> ROUND($B19, 1)</f>
+        <f t="shared" ref="B35" si="0" xml:space="preserve"> ROUND($B19, 1)</f>
         <v>0</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" ref="C21:C35" si="1" xml:space="preserve"> ROUND($C19, 1)</f>
+        <f t="shared" ref="C35" si="1" xml:space="preserve"> ROUND($C19, 1)</f>
         <v>0</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" ref="K21:K35" si="2" xml:space="preserve"> ROUND($K19, 1)</f>
+        <f t="shared" ref="K35" si="2" xml:space="preserve"> ROUND($K19, 1)</f>
         <v>0</v>
       </c>
     </row>
